--- a/data/trans_camb/P17_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-20,22</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-19,17</t>
+          <t>-17,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,94</t>
+          <t>-18,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-13,88</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,79</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-10,54</t>
+          <t>-12,99</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-13,81</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-7,98</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 1,55</t>
+          <t>-23,21; 3,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 1,02</t>
+          <t>-23,6; 1,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 9,47</t>
+          <t>-16,62; 11,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,61; -7,34</t>
+          <t>-13,36; 19,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,23; -7,19</t>
+          <t>-31,64; -3,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,36; -6,14</t>
+          <t>-33,21; -4,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,08; -6,32</t>
+          <t>-27,45; 4,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,04; -6,29</t>
+          <t>-25,48; 9,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,05; -2,87</t>
+          <t>-23,68; -3,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-24,59; -4,85</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-19,47; 2,82</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-15,83; 8,15</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-63,85%</t>
+          <t>-68,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-67,76%</t>
+          <t>-75,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-28,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-64,5%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-61,15%</t>
+          <t>-72,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-57,23%</t>
+          <t>-75,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-65,42%</t>
+          <t>-44,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-65,01%</t>
+          <t>-31,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-49,66%</t>
+          <t>-71,86%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-76,43%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-44,15%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-22,83%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 141,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 174,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-80,13; 298,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-84,44; -29,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,55; -25,07</t>
+          <t>-93,37; 3,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,31; -23,69</t>
+          <t>-95,29; -21,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-85,41; -34,41</t>
+          <t>-80,9; 33,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,07; -33,07</t>
+          <t>-73,47; 75,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-74,49; -15,78</t>
+          <t>-93,47; -20,5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-94,14; -23,49</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-79,76; 39,16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-67,34; 73,16</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-14,26</t>
+          <t>-17,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,14</t>
+          <t>-12,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,3</t>
+          <t>-14,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,12</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>-15,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-14,13</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
+          <t>-16,29</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-9,76</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-11,6</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-38,84; -3,23</t>
+          <t>-47,67; -0,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 3,18</t>
+          <t>-45,68; 4,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-37,21; -0,93</t>
+          <t>-47,22; 1,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,86; -4,83</t>
+          <t>-31,42; 29,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 4,12</t>
+          <t>-27,01; -2,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 2,19</t>
+          <t>-20,43; 7,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-26,46; -6,72</t>
+          <t>-21,29; 5,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 0,44</t>
+          <t>-18,08; 10,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,41; -1,53</t>
+          <t>-33,99; -5,66</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-26,79; 2,11</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-30,59; -0,54</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-20,79; 19,44</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-78,85%</t>
+          <t>-78,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-50,53%</t>
+          <t>-56,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-68,0%</t>
+          <t>-65,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-70,92%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-36,95%</t>
+          <t>-74,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,53%</t>
+          <t>-34,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-74,25%</t>
+          <t>-40,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-43,58%</t>
+          <t>-17,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-52,91%</t>
+          <t>-76,8%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-46,01%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-54,68%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,48%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -17,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-90,7; 46,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 4,12</t>
+          <t>-100,0; 36,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-88,62; -22,96</t>
+          <t>-89,67; 333,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,09; 39,36</t>
+          <t>-94,21; -2,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,64; 18,67</t>
+          <t>-74,79; 65,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-89,6; -45,19</t>
+          <t>-76,47; 58,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,76; 6,94</t>
+          <t>-68,87; 86,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-77,65; -9,86</t>
+          <t>-94,82; -32,44</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-79,77; 20,57</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-85,54; -3,21</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-69,28; 127,22</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-7,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-8,66</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,01</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-6,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 25,27</t>
+          <t>-21,2; 2,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 14,17</t>
+          <t>-19,95; 6,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 13,0</t>
+          <t>-13,9; 15,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -2,07</t>
+          <t>-18,59; 7,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 4,41</t>
+          <t>-18,92; 1,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 6,78</t>
+          <t>-15,26; 6,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 3,28</t>
+          <t>-13,35; 7,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 5,93</t>
+          <t>-17,55; 2,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 6,39</t>
+          <t>-16,2; -1,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-13,3; 2,5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,89; 7,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-15,96; 0,87</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,74%</t>
+          <t>-50,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>-34,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-48,24%</t>
+          <t>-27,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,23%</t>
+          <t>-44,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,48%</t>
+          <t>-22,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-37,1%</t>
+          <t>-13,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>-38,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>-46,76%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-27,05%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-3,86%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-34,36%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,56; 330,61</t>
+          <t>-86,79; 35,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,54; 143,37</t>
+          <t>-80,2; 67,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,41; 127,34</t>
+          <t>-60,41; 142,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,76; -10,39</t>
+          <t>-77,59; 89,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,98; 27,55</t>
+          <t>-74,47; 11,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 44,74</t>
+          <t>-60,27; 46,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 27,75</t>
+          <t>-52,59; 56,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 39,99</t>
+          <t>-70,99; 20,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,9; 46,03</t>
+          <t>-70,28; -6,99</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-58,42; 20,82</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-41,3; 51,82</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-67,01; 6,89</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-10,75</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>-11,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-8,92</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-8,06</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,0; -0,17</t>
+          <t>-13,33; 3,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 6,02</t>
+          <t>-12,25; 5,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 10,13</t>
+          <t>-6,25; 14,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,01; -2,03</t>
+          <t>-0,92; 20,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 13,41</t>
+          <t>-23,05; -0,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 9,58</t>
+          <t>-4,92; 20,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,61; -3,49</t>
+          <t>-12,74; 11,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 7,42</t>
+          <t>-10,65; 14,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 7,5</t>
+          <t>-15,26; -1,19</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 9,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,1; 9,72</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 13,41</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-51,88%</t>
+          <t>-41,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-16,81%</t>
+          <t>-26,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-44,26%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>-46,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-46,4%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>-45,38%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>12,84%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>30,23%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-81,58; 4,78</t>
+          <t>-83,2; 92,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-58,98; 71,35</t>
+          <t>-79,53; 93,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 119,94</t>
+          <t>-44,98; 242,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,06; -9,81</t>
+          <t>-13,04; 363,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 68,54</t>
+          <t>-72,3; -0,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 47,94</t>
+          <t>-17,94; 113,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-64,62; -20,27</t>
+          <t>-42,69; 65,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 47,19</t>
+          <t>-37,16; 83,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 46,97</t>
+          <t>-70,1; -6,97</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-28,52; 70,2</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-28,28; 67,59</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-14,91; 98,44</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-11,96</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-11,38</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>-5,58</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-4,4</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 6,79</t>
+          <t>-13,14; 10,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 6,37</t>
+          <t>-15,41; 4,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 7,44</t>
+          <t>-11,67; 10,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,14; -1,77</t>
+          <t>-9,55; 15,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 9,38</t>
+          <t>-23,99; 2,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 16,91</t>
+          <t>-17,46; 10,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-12,08; -0,38</t>
+          <t>-7,12; 25,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 6,02</t>
+          <t>-15,59; 13,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 9,91</t>
+          <t>-14,84; 3,21</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-12,92; 4,96</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 12,91</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-7,84; 10,28</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>-9,6%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-5,34%</t>
+          <t>-37,2%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>-7,66%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-56,2%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,34%</t>
+          <t>-58,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>-18,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-40,11%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-7,07%</t>
+          <t>-6,72%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>-35,45%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-27,96%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>19,71%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,13; 131,26</t>
+          <t>-68,56; 138,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 139,34</t>
+          <t>-79,98; 90,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 140,6</t>
+          <t>-66,41; 168,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-79,38; -3,01</t>
+          <t>-53,13; 226,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 61,74</t>
+          <t>-90,01; 40,18</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 108,67</t>
+          <t>-67,17; 102,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-65,01; -3,51</t>
+          <t>-25,97; 244,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-41,89; 51,72</t>
+          <t>-59,02; 125,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 84,48</t>
+          <t>-71,18; 31,13</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-63,43; 50,82</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-29,7; 120,67</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-40,04; 96,0</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>15,33</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>14,67</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>-2,83</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-3,28</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>9,29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 10,65</t>
+          <t>-13,94; 11,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 17,28</t>
+          <t>-10,0; 17,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 13,58</t>
+          <t>-15,03; 8,89</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 13,25</t>
+          <t>-13,57; 12,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 8,95</t>
+          <t>-21,79; 9,88</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 46,62</t>
+          <t>-21,82; 11,32</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 8,83</t>
+          <t>-20,79; 11,71</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 8,99</t>
+          <t>-4,49; 39,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 34,31</t>
+          <t>-13,96; 7,52</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-11,85; 10,85</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 6,52</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 26,99</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>-3,45%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>72,0%</t>
+          <t>43,61%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>-32,95%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>-7,03%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>-25,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>-20,12%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>-18,37%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>69,03%</t>
+          <t>-18,92%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-3,15%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-21,92%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>62,08%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-67,17; 235,46</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-32,41; 355,89</t>
+          <t>-81,93; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-52,89; 287,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-49,04; 88,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-57,92; 57,71</t>
+          <t>-74,17; 87,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 302,02</t>
+          <t>-76,04; 94,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-40,9; 70,22</t>
+          <t>-74,47; 95,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 70,47</t>
+          <t>-28,24; 350,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 262,98</t>
+          <t>-69,37; 97,94</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-59,14; 120,4</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-69,99; 81,15</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-23,72; 273,84</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-11,19</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-9,15</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-4,83</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 0,3</t>
+          <t>-13,99; -1,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 2,58</t>
+          <t>-13,26; 0,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,71</t>
+          <t>-10,65; 3,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-14,97; -7,07</t>
+          <t>-6,06; 10,6</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -0,3</t>
+          <t>-15,87; -5,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 7,01</t>
+          <t>-9,53; 1,87</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -4,84</t>
+          <t>-8,69; 2,38</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -0,31</t>
+          <t>-5,92; 7,49</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 3,61</t>
+          <t>-13,46; -5,87</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; -0,96</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-7,38; 1,08</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 6,1</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-38,11%</t>
+          <t>-48,05%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-15,15%</t>
+          <t>-38,66%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>-18,28%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-48,31%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-18,77%</t>
+          <t>-53,07%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-3,95%</t>
+          <t>-19,4%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-45,12%</t>
+          <t>-14,78%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-18,22%</t>
+          <t>-0,99%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>-51,09%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-26,97%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-16,97%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-62,5; 9,19</t>
+          <t>-70,17; -10,2</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 26,5</t>
+          <t>-65,84; 1,47</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 37,42</t>
+          <t>-53,01; 33,31</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-59,35; -34,9</t>
+          <t>-36,84; 90,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-34,75; -1,39</t>
+          <t>-66,15; -31,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 33,12</t>
+          <t>-39,3; 10,67</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-57,13; -28,03</t>
+          <t>-36,33; 13,41</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-33,08; -1,79</t>
+          <t>-25,59; 38,82</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 22,77</t>
+          <t>-64,47; -35,74</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-44,74; -5,56</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-35,32; 6,88</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-23,65; 38,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
